--- a/Data_science_outputs/1500pop/output_results/output_analysis_3.xlsx
+++ b/Data_science_outputs/1500pop/output_results/output_analysis_3.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39328.36311375107</v>
+        <v>29064.13089906621</v>
       </c>
       <c r="C3" t="n">
         <v>23835.41416784718</v>
       </c>
       <c r="D3" t="n">
-        <v>11564.98716962518</v>
+        <v>1258.796563159701</v>
       </c>
       <c r="E3" t="n">
         <v>3948.297927845329</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13808.67360567746</v>
+        <v>12371.08687036967</v>
       </c>
       <c r="C4" t="n">
         <v>11575.91420024513</v>
       </c>
       <c r="D4" t="n">
-        <v>10711.67061509639</v>
+        <v>850.4644761958602</v>
       </c>
       <c r="E4" t="n">
         <v>1949.187477709347</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6111.035</v>
+        <v>5840.039000000001</v>
       </c>
       <c r="C5" t="n">
         <v>3767.025</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26835.03950000001</v>
+        <v>19580.036</v>
       </c>
       <c r="C6" t="n">
         <v>15033.03925000001</v>
       </c>
       <c r="D6" t="n">
-        <v>252.003</v>
+        <v>228.003</v>
       </c>
       <c r="E6" t="n">
         <v>2500</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41516.143</v>
+        <v>25510.03450000008</v>
       </c>
       <c r="C7" t="n">
         <v>19255</v>
       </c>
       <c r="D7" t="n">
-        <v>11240</v>
+        <v>1680</v>
       </c>
       <c r="E7" t="n">
         <v>3665.004</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49459.04325000011</v>
+        <v>40111.52275000008</v>
       </c>
       <c r="C8" t="n">
         <v>33921.21275000015</v>
       </c>
       <c r="D8" t="n">
-        <v>23045</v>
+        <v>1925</v>
       </c>
       <c r="E8" t="n">
         <v>4919.279750000001</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67330.19400000019</v>
+        <v>61630.61799999995</v>
       </c>
       <c r="C9" t="n">
         <v>53488.6259999999</v>
       </c>
       <c r="D9" t="n">
-        <v>24265</v>
+        <v>6230.005</v>
       </c>
       <c r="E9" t="n">
         <v>16740.007</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>20670987652.59001</v>
+        <v>15276107200.54601</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>1029689892.051002</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6055446026930235</v>
+        <v>0.8208412111448016</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>6078557256.354998</v>
+        <v>661623473.597</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2940622556848838</v>
+        <v>0.04331099964874242</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>2075225390.875</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1003931416220928</v>
+        <v>0.135847789206456</v>
       </c>
     </row>
   </sheetData>
